--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225E432A-D0C6-4BDB-8D35-AD50DB348671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682091CF-AC9C-430E-8A9F-E13FE937B929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6408" yWindow="5328" windowWidth="34560" windowHeight="18792" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="19296" yWindow="12384" windowWidth="21600" windowHeight="11436" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="skill_group" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
   <si>
     <t>int</t>
   </si>
@@ -113,13 +113,7 @@
   </si>
   <si>
     <t>hp_condition</t>
-  </si>
-  <si>
-    <t>hp_condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터_임시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -552,11 +546,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -626,7 +620,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>200000101</v>
+        <v>20000010101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -644,51 +638,51 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>200000101</v>
+        <v>20000010101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>10002</v>
+        <v>30002</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>200000101</v>
+        <v>20000010102</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>30002</v>
+        <v>10001</v>
       </c>
       <c r="D6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>200000102</v>
+        <v>20000010102</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -700,13 +694,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>200000102</v>
+        <v>20000010102</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>10002</v>
+        <v>30002</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -718,36 +712,34 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>200000102</v>
+        <v>20000010103</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>30002</v>
+        <v>10001</v>
       </c>
       <c r="D9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0.8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>200000103</v>
+        <v>20000010103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>17</v>
@@ -756,13 +748,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>200000103</v>
+        <v>20000010103</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>10002</v>
+        <v>30002</v>
       </c>
       <c r="D11" s="1">
         <v>2</v>
@@ -774,71 +766,295 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>200000103</v>
+        <v>20000010201</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>20000010201</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
         <v>30002</v>
       </c>
-      <c r="D12" s="1">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="1">
+        <v>20000010202</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="A15" s="1">
+        <v>20000010202</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="1">
+        <v>20000010202</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="A17" s="1">
+        <v>20000010203</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="A18" s="1">
+        <v>20000010203</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>20000010203</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>2</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>20000010301</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20000010301</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20000010302</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>20000010302</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>20000010302</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>20000010303</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>20000010303</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>20000010303</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682091CF-AC9C-430E-8A9F-E13FE937B929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A83D86-B047-4CC2-A360-AF13C1BFE476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19296" yWindow="12384" windowWidth="21600" windowHeight="11436" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="skill_group" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -620,7 +620,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>20000010101</v>
+        <v>200010101</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>20000010101</v>
+        <v>200010101</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -658,7 +658,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>20000010102</v>
+        <v>200010102</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>20000010102</v>
+        <v>200010102</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>20000010102</v>
+        <v>200010102</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -712,7 +712,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>20000010103</v>
+        <v>200010103</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -730,7 +730,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>20000010103</v>
+        <v>200010103</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>20000010103</v>
+        <v>200010103</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>20000010201</v>
+        <v>200010201</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>20000010201</v>
+        <v>200010201</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>20000010202</v>
+        <v>200010202</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>20000010202</v>
+        <v>200010202</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -840,7 +840,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>20000010202</v>
+        <v>200010202</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>20000010203</v>
+        <v>200010203</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>20000010203</v>
+        <v>200010203</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>20000010203</v>
+        <v>200010203</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>20000010301</v>
+        <v>200010301</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20000010301</v>
+        <v>200010301</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>20000010302</v>
+        <v>200010302</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -968,7 +968,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>20000010302</v>
+        <v>200010302</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>20000010302</v>
+        <v>200010302</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>20000010303</v>
+        <v>200010303</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>20000010303</v>
+        <v>200010303</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>20000010303</v>
+        <v>200010303</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\Go.D.Taekwon\GameData\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A83D86-B047-4CC2-A360-AF13C1BFE476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840C332E-7B54-4487-9AD8-6F8629E3CFF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="46296" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
     <sheet name="skill_group" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="29">
   <si>
     <t>int</t>
   </si>
@@ -114,6 +103,37 @@
   <si>
     <t>hp_condition</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#effect_id_memo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spell_effect ID 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과</t>
+  </si>
+  <si>
+    <t>방어도</t>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속</t>
+  </si>
+  <si>
+    <t>몬스터_전사_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_주술사_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_탱커_LV1</t>
   </si>
 </sst>
 </file>
@@ -250,9 +270,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -290,7 +310,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -396,7 +416,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -538,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -546,21 +566,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G33" sqref="G33"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="3" customWidth="1"/>
-    <col min="3" max="6" width="15.19921875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="3"/>
+    <col min="3" max="7" width="15.25" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
@@ -570,17 +590,20 @@
       <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -591,16 +614,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="5" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -608,73 +634,81 @@
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>200010101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>10001</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>200010101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>30002</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10001</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>200010102</v>
+        <v>200010101</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>10001</v>
       </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>200010102</v>
       </c>
@@ -682,17 +716,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>20001</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10001</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>200010102</v>
       </c>
@@ -700,35 +737,41 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>200010102</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1">
         <v>30002</v>
       </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>200010103</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10001</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>200010103</v>
       </c>
@@ -736,17 +779,20 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>20001</v>
-      </c>
-      <c r="D10" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="1">
         <v>1</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>200010103</v>
       </c>
@@ -754,183 +800,211 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>200010103</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
         <v>30002</v>
       </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>200010201</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1">
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>200020101</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1">
         <v>10001</v>
       </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>200010201</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>200020101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1">
         <v>30002</v>
       </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>200010202</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1">
-        <v>10001</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>200010202</v>
+        <v>200020101</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
         <v>20001</v>
       </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>200010202</v>
+        <v>200020102</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>200020102</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>200020102</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1">
         <v>30002</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>200010203</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1">
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>200020103</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
         <v>10001</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="1">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>200010203</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>200020103</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
         <v>20001</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>200010203</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1">
-        <v>30002</v>
-      </c>
-      <c r="D19" s="1">
-        <v>2</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>200010301</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1">
-        <v>10001</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>200010301</v>
+        <v>200020103</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -938,126 +1012,400 @@
       <c r="C21" s="1">
         <v>30002</v>
       </c>
-      <c r="D21" s="1">
-        <v>3</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="1">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>200010302</v>
+        <v>200030101</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1">
         <v>10001</v>
       </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="1">
+        <v>4</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>200010302</v>
+        <v>200030101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>20001</v>
-      </c>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10002</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>200010302</v>
+        <v>200030101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1">
         <v>30002</v>
       </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>200010303</v>
+        <v>200030101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1">
+        <v>10002</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>200030102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
         <v>10001</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>200030102</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>200030102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>200030103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>200010303</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1">
+      <c r="F29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>200030103</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
         <v>20001</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>200010303</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1">
+      <c r="F30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>200030103</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
         <v>30002</v>
       </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>200040101</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>200040101</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="1">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>200040102</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>200040102</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>200040102</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>200040103</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10001</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>200040103</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>200040103</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{840C332E-7B54-4487-9AD8-6F8629E3CFF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A4A48-068D-4EEE-A92A-90A2B78A0B54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
   <si>
     <t>int</t>
   </si>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>몬스터_탱커_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_주술사_LV1_2페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -566,11 +570,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -710,7 +714,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>200010102</v>
+        <v>200010201</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -731,7 +735,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>200010102</v>
+        <v>200010201</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -752,7 +756,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>200010102</v>
+        <v>200010201</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -773,7 +777,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>200010103</v>
+        <v>200010301</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -794,7 +798,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>200010103</v>
+        <v>200010301</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -815,7 +819,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>200010103</v>
+        <v>200010301</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -899,7 +903,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>200020102</v>
+        <v>200020201</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -920,7 +924,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>200020102</v>
+        <v>200020201</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -941,7 +945,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>200020102</v>
+        <v>200020201</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -962,7 +966,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>200020103</v>
+        <v>200020301</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -983,7 +987,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>200020103</v>
+        <v>200020301</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
@@ -1004,7 +1008,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>200020103</v>
+        <v>200020301</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -1112,16 +1116,16 @@
         <v>200030102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>10001</v>
+        <v>20001</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E26" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>17</v>
@@ -1130,19 +1134,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>200030102</v>
+        <v>200030201</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>17</v>
@@ -1151,19 +1155,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>200030102</v>
+        <v>200030201</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>30002</v>
+        <v>20001</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -1172,19 +1176,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>200030103</v>
+        <v>200030201</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>10001</v>
+        <v>30002</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>17</v>
@@ -1193,16 +1197,16 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>200030103</v>
+        <v>200030301</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1214,19 +1218,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>200030103</v>
+        <v>200030301</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>30002</v>
+        <v>20001</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>17</v>
@@ -1235,22 +1239,22 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>200040101</v>
+        <v>200030301</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>10001</v>
+        <v>30002</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E32" s="1">
         <v>2</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1262,54 +1266,54 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>30002</v>
+        <v>10001</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G33" s="1">
-        <v>0.8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>200040102</v>
+        <v>200040101</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>10001</v>
+        <v>30002</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>200040102</v>
+        <v>200040201</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1321,16 +1325,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>200040102</v>
+        <v>200040201</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>30002</v>
+        <v>20001</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
@@ -1342,19 +1346,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>200040103</v>
+        <v>200040201</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>10001</v>
+        <v>30002</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E37" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>17</v>
@@ -1363,16 +1367,16 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>200040103</v>
+        <v>200040301</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E38" s="1">
         <v>1</v>
@@ -1384,24 +1388,45 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>200040103</v>
+        <v>200040301</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="1">
+        <v>20001</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>200040301</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
         <v>30002</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E39" s="1">
-        <v>2</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" s="1"/>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8A4A48-068D-4EEE-A92A-90A2B78A0B54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D340C628-FC68-498E-90EC-80F665D2FCDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
   <si>
     <t>int</t>
   </si>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>몬스터_주술사_LV1_2페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_엘리트_LV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -570,16 +574,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="15.25" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
@@ -657,7 +662,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>10001</v>
+        <v>10103</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -678,7 +683,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>10001</v>
+        <v>10104</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -699,7 +704,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1">
-        <v>10001</v>
+        <v>10105</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -720,7 +725,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
@@ -741,7 +746,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>20001</v>
+        <v>20101</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>24</v>
@@ -762,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
@@ -783,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
@@ -804,7 +809,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>20001</v>
+        <v>20101</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
@@ -825,7 +830,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -846,7 +851,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="1">
-        <v>10001</v>
+        <v>10104</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>22</v>
@@ -867,7 +872,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>30002</v>
+        <v>30205</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
@@ -888,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="1">
-        <v>20001</v>
+        <v>20102</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>24</v>
@@ -909,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -930,7 +935,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>20001</v>
+        <v>20101</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>24</v>
@@ -951,7 +956,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
@@ -972,7 +977,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>22</v>
@@ -993,7 +998,7 @@
         <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>20001</v>
+        <v>20101</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>24</v>
@@ -1014,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
@@ -1035,7 +1040,7 @@
         <v>27</v>
       </c>
       <c r="C22" s="1">
-        <v>10001</v>
+        <v>10103</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>22</v>
@@ -1056,7 +1061,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>10002</v>
+        <v>10205</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>26</v>
@@ -1077,7 +1082,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>30002</v>
+        <v>30203</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>23</v>
@@ -1098,7 +1103,7 @@
         <v>27</v>
       </c>
       <c r="C25" s="1">
-        <v>10002</v>
+        <v>10205</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
@@ -1119,7 +1124,7 @@
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>20001</v>
+        <v>20102</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>24</v>
@@ -1140,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>22</v>
@@ -1161,7 +1166,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>20001</v>
+        <v>20101</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>24</v>
@@ -1182,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>23</v>
@@ -1203,7 +1208,7 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>22</v>
@@ -1224,7 +1229,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>20001</v>
+        <v>20101</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>24</v>
@@ -1245,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>23</v>
@@ -1266,7 +1271,7 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>22</v>
@@ -1287,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>23</v>
@@ -1310,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>22</v>
@@ -1331,7 +1336,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>20001</v>
+        <v>20101</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>24</v>
@@ -1352,7 +1357,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>23</v>
@@ -1373,7 +1378,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>10001</v>
+        <v>10101</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>22</v>
@@ -1394,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>20001</v>
+        <v>20101</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>24</v>
@@ -1415,7 +1420,7 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>30002</v>
+        <v>30201</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>23</v>
@@ -1427,6 +1432,132 @@
         <v>17</v>
       </c>
       <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>201010101</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="1">
+        <v>10106</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E41" s="1">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>201010101</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="1">
+        <v>10107</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>201010101</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="1">
+        <v>10108</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="1">
+        <v>5</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>201010201</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10108</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>201010201</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="1">
+        <v>10109</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>201010201</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="1">
+        <v>10110</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="1">
+        <v>5</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D340C628-FC68-498E-90EC-80F665D2FCDD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C3EEE2-4B83-4492-AB8F-268231F89444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
   <si>
     <t>int</t>
   </si>
@@ -141,6 +141,25 @@
   </si>
   <si>
     <t>몬스터_전사_엘리트_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몬스터 전용 효과) 행동 안 함</t>
+  </si>
+  <si>
+    <t>방어도_낮은체력아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어도_셀프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_보스_LV1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,11 +593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -683,7 +702,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>10104</v>
+        <v>10105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -704,7 +723,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1">
-        <v>10105</v>
+        <v>10107</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -719,22 +738,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>200010201</v>
+        <v>200010101</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
-        <v>10101</v>
+        <v>100101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -746,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
@@ -767,10 +786,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -782,19 +801,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>200010301</v>
+        <v>200010201</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>10101</v>
+        <v>30201</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>17</v>
@@ -809,10 +828,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -830,13 +849,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>17</v>
@@ -845,19 +864,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>200020101</v>
+        <v>200010301</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>10104</v>
+        <v>30201</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>17</v>
@@ -872,10 +891,10 @@
         <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>30205</v>
+        <v>10104</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E14" s="1">
         <v>3</v>
@@ -892,14 +911,14 @@
       <c r="B15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="1">
-        <v>20102</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>24</v>
+      <c r="C15" s="3">
+        <v>130205</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="E15" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>17</v>
@@ -908,19 +927,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>200020201</v>
+        <v>200020101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C16" s="1">
-        <v>10101</v>
+        <v>20102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>17</v>
@@ -935,10 +954,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -956,10 +975,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -971,19 +990,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>200020301</v>
+        <v>200020201</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="1">
-        <v>10101</v>
+        <v>30201</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>17</v>
@@ -998,10 +1017,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1019,13 +1038,13 @@
         <v>3</v>
       </c>
       <c r="C21" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>17</v>
@@ -1034,19 +1053,19 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>200030101</v>
+        <v>200020301</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1">
-        <v>10103</v>
+        <v>30201</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E22" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>17</v>
@@ -1061,10 +1080,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>10205</v>
+        <v>10103</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E23" s="1">
         <v>3</v>
@@ -1082,13 +1101,13 @@
         <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>30203</v>
+        <v>100202</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>17</v>
@@ -1103,13 +1122,13 @@
         <v>27</v>
       </c>
       <c r="C25" s="1">
-        <v>10205</v>
+        <v>100206</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>17</v>
@@ -1139,19 +1158,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>200030201</v>
+        <v>200030102</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>10101</v>
+        <v>10207</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>17</v>
@@ -1160,19 +1179,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>200030201</v>
+        <v>200030102</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1">
-        <v>20101</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="C28" s="3">
+        <v>30203</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -1181,19 +1200,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>200030201</v>
+        <v>200030102</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <v>30201</v>
+        <v>100205</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>17</v>
@@ -1202,7 +1221,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>200030301</v>
+        <v>200030201</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
@@ -1223,7 +1242,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>200030301</v>
+        <v>200030201</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
@@ -1244,7 +1263,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>200030301</v>
+        <v>200030201</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
@@ -1265,7 +1284,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>200040101</v>
+        <v>200030301</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
@@ -1277,48 +1296,46 @@
         <v>22</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>200040101</v>
+        <v>200030301</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G34" s="1">
-        <v>0.8</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>200040201</v>
+        <v>200030301</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>10101</v>
+        <v>30201</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="1">
         <v>2</v>
@@ -1330,28 +1347,28 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>200040201</v>
+        <v>200040101</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>200040201</v>
+        <v>200040101</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3</v>
@@ -1363,16 +1380,18 @@
         <v>23</v>
       </c>
       <c r="E37" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="G37" s="1">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>200040301</v>
+        <v>200040201</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>3</v>
@@ -1384,7 +1403,7 @@
         <v>22</v>
       </c>
       <c r="E38" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>17</v>
@@ -1393,7 +1412,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>200040301</v>
+        <v>200040201</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
@@ -1405,7 +1424,7 @@
         <v>24</v>
       </c>
       <c r="E39" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>17</v>
@@ -1414,7 +1433,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>200040301</v>
+        <v>200040201</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3</v>
@@ -1435,76 +1454,76 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>201010101</v>
+        <v>200040301</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>10106</v>
+        <v>10101</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E41" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>201010101</v>
+        <v>200040301</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>10107</v>
+        <v>20101</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E42" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>201010101</v>
+        <v>200040301</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>10108</v>
+        <v>30201</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E43" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>201010201</v>
+        <v>201010101</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="1">
-        <v>10108</v>
+        <v>10106</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>22</v>
@@ -1519,13 +1538,13 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>201010201</v>
+        <v>201010101</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C45" s="1">
-        <v>10109</v>
+        <v>10107</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>22</v>
@@ -1540,13 +1559,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>201010201</v>
+        <v>201010101</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C46" s="1">
-        <v>10110</v>
+        <v>10108</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>22</v>
@@ -1558,6 +1577,195 @@
         <v>18</v>
       </c>
       <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>201010201</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="1">
+        <v>10108</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="1">
+        <v>3</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>201010201</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="1">
+        <v>10109</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>201010201</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>10110</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>202010101</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="1">
+        <v>10106</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1">
+        <v>3</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>202010101</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="1">
+        <v>10107</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E51" s="1">
+        <v>4</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>202010101</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="1">
+        <v>10108</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E52" s="1">
+        <v>5</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>202010101</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="1">
+        <v>10108</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="1">
+        <v>3</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>202010101</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="1">
+        <v>10109</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>202010101</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="1">
+        <v>10110</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E55" s="1">
+        <v>5</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C3EEE2-4B83-4492-AB8F-268231F89444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B2A31E-05FB-4BA3-8ED5-58083FC438BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="42">
   <si>
     <t>int</t>
   </si>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>몬스터_전사_보스_LV1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과_지속(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력 회복 효과_셀프_지속(3턴)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(몬스터 전용) AP 감소/증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_보스_LV1_2페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_전사_보스_LV1_3페</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,11 +617,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D55" sqref="D55"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1086,7 +1110,7 @@
         <v>22</v>
       </c>
       <c r="E23" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>17</v>
@@ -1121,14 +1145,14 @@
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
-        <v>100206</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>26</v>
+      <c r="C25" s="3">
+        <v>130602</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>17</v>
@@ -1137,19 +1161,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>200030102</v>
+        <v>200030101</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>20102</v>
+        <v>100206</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>17</v>
@@ -1164,10 +1188,10 @@
         <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>10207</v>
+        <v>20102</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E27" s="1">
         <v>4</v>
@@ -1184,14 +1208,14 @@
       <c r="B28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3">
-        <v>30203</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>34</v>
+      <c r="C28" s="1">
+        <v>10207</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>17</v>
@@ -1205,14 +1229,14 @@
       <c r="B29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="1">
-        <v>100205</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>26</v>
+      <c r="C29" s="3">
+        <v>130603</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E29" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>17</v>
@@ -1221,19 +1245,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>200030201</v>
+        <v>200030102</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>10101</v>
+        <v>100205</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>17</v>
@@ -1248,10 +1272,10 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1269,13 +1293,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>17</v>
@@ -1284,19 +1308,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>200030301</v>
+        <v>200030201</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>10101</v>
+        <v>30201</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>17</v>
@@ -1311,10 +1335,10 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E34" s="1">
         <v>1</v>
@@ -1332,13 +1356,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E35" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>17</v>
@@ -1347,22 +1371,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>200040101</v>
+        <v>200030301</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>10101</v>
+        <v>30201</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1">
         <v>2</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1374,41 +1398,41 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>30201</v>
+        <v>10101</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E37" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G37" s="1">
-        <v>0.8</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>200040201</v>
+        <v>200040101</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>10101</v>
+        <v>30201</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
@@ -1418,10 +1442,10 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E39" s="1">
         <v>2</v>
@@ -1439,10 +1463,10 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E40" s="1">
         <v>2</v>
@@ -1454,19 +1478,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>200040301</v>
+        <v>200040201</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>10101</v>
+        <v>30201</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>17</v>
@@ -1481,10 +1505,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>20101</v>
+        <v>10101</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E42" s="1">
         <v>1</v>
@@ -1502,13 +1526,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>30201</v>
+        <v>20101</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E43" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>17</v>
@@ -1517,22 +1541,22 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>201010101</v>
+        <v>200040301</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>10106</v>
+        <v>30201</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E44" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1544,13 +1568,13 @@
         <v>30</v>
       </c>
       <c r="C45" s="1">
-        <v>10107</v>
+        <v>10106</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E45" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>18</v>
@@ -1565,13 +1589,13 @@
         <v>30</v>
       </c>
       <c r="C46" s="1">
-        <v>10108</v>
+        <v>10107</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>18</v>
@@ -1580,7 +1604,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>201010201</v>
+        <v>201010101</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>30</v>
@@ -1592,7 +1616,7 @@
         <v>22</v>
       </c>
       <c r="E47" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>18</v>
@@ -1607,13 +1631,13 @@
         <v>30</v>
       </c>
       <c r="C48" s="1">
-        <v>10109</v>
+        <v>10108</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>18</v>
@@ -1628,13 +1652,13 @@
         <v>30</v>
       </c>
       <c r="C49" s="1">
-        <v>10110</v>
+        <v>10109</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>18</v>
@@ -1643,19 +1667,19 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <v>202010101</v>
+        <v>201010201</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C50" s="1">
-        <v>10106</v>
+        <v>10110</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>18</v>
@@ -1670,13 +1694,13 @@
         <v>35</v>
       </c>
       <c r="C51" s="1">
-        <v>10107</v>
+        <v>20103</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E51" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>18</v>
@@ -1690,14 +1714,14 @@
       <c r="B52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="1">
-        <v>10108</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>22</v>
+      <c r="C52" s="3">
+        <v>30206</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="E52" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>18</v>
@@ -1711,11 +1735,11 @@
       <c r="B53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C53" s="1">
-        <v>10108</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>22</v>
+      <c r="C53" s="3">
+        <v>130602</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E53" s="1">
         <v>3</v>
@@ -1733,10 +1757,10 @@
         <v>35</v>
       </c>
       <c r="C54" s="1">
-        <v>10109</v>
+        <v>20104</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E54" s="1">
         <v>4</v>
@@ -1753,19 +1777,250 @@
       <c r="B55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="3">
+        <v>30209</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>202010102</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20105</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" s="1">
+        <v>4</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>202010102</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" s="1">
+        <v>20203</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>202010102</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="3">
+        <v>130603</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>202010102</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="1">
+        <v>20105</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" s="1">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>202010102</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="1">
+        <v>20203</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="1">
+        <v>5</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>202010103</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C61" s="1">
         <v>10110</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="1">
-        <v>5</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>202010103</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C62" s="1">
+        <v>10206</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E62" s="1">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>202010103</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63" s="3">
+        <v>30208</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E63" s="1">
+        <v>4</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>202010103</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" s="1">
+        <v>10120</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E64" s="1">
+        <v>6</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>202010103</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="1">
+        <v>10212</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" s="1">
+        <v>6</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>202010103</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="3">
+        <v>30216</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E66" s="1">
+        <v>6</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B2A31E-05FB-4BA3-8ED5-58083FC438BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE5E234-5544-4153-A9BF-7DCD3A8238BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -619,9 +619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -705,7 +705,7 @@
         <v>25</v>
       </c>
       <c r="C4" s="1">
-        <v>10103</v>
+        <v>10106</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -726,7 +726,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="1">
-        <v>10105</v>
+        <v>10110</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -747,7 +747,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="1">
-        <v>10107</v>
+        <v>10114</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
@@ -915,7 +915,7 @@
         <v>28</v>
       </c>
       <c r="C14" s="1">
-        <v>10104</v>
+        <v>10108</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>22</v>
@@ -936,7 +936,7 @@
         <v>28</v>
       </c>
       <c r="C15" s="3">
-        <v>130205</v>
+        <v>130210</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
@@ -957,7 +957,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="1">
-        <v>20102</v>
+        <v>20104</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>24</v>
@@ -1104,7 +1104,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="1">
-        <v>10103</v>
+        <v>10106</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>22</v>
@@ -1125,7 +1125,7 @@
         <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>100202</v>
+        <v>100204</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -1167,7 +1167,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="1">
-        <v>100206</v>
+        <v>100209</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>26</v>
@@ -1188,7 +1188,7 @@
         <v>29</v>
       </c>
       <c r="C27" s="1">
-        <v>20102</v>
+        <v>20104</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>24</v>
@@ -1209,7 +1209,7 @@
         <v>29</v>
       </c>
       <c r="C28" s="1">
-        <v>10207</v>
+        <v>10211</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>33</v>
@@ -1251,7 +1251,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="1">
-        <v>100205</v>
+        <v>100215</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>26</v>
@@ -1568,7 +1568,7 @@
         <v>30</v>
       </c>
       <c r="C45" s="1">
-        <v>10106</v>
+        <v>10112</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>22</v>
@@ -1589,7 +1589,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="1">
-        <v>10107</v>
+        <v>10114</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>22</v>
@@ -1610,7 +1610,7 @@
         <v>30</v>
       </c>
       <c r="C47" s="1">
-        <v>10108</v>
+        <v>10116</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>22</v>
@@ -1631,7 +1631,7 @@
         <v>30</v>
       </c>
       <c r="C48" s="1">
-        <v>10108</v>
+        <v>10116</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>22</v>
@@ -1652,7 +1652,7 @@
         <v>30</v>
       </c>
       <c r="C49" s="1">
-        <v>10109</v>
+        <v>10118</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>22</v>
@@ -1673,7 +1673,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="1">
-        <v>10110</v>
+        <v>10120</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>22</v>
@@ -1694,7 +1694,7 @@
         <v>35</v>
       </c>
       <c r="C51" s="1">
-        <v>20103</v>
+        <v>20106</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>36</v>
@@ -1715,7 +1715,7 @@
         <v>35</v>
       </c>
       <c r="C52" s="3">
-        <v>30206</v>
+        <v>30212</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>34</v>
@@ -1757,7 +1757,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="1">
-        <v>20104</v>
+        <v>20108</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>36</v>
@@ -1778,7 +1778,7 @@
         <v>35</v>
       </c>
       <c r="C55" s="3">
-        <v>30209</v>
+        <v>30215</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>34</v>
@@ -1799,7 +1799,7 @@
         <v>40</v>
       </c>
       <c r="C56" s="1">
-        <v>20105</v>
+        <v>20110</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>36</v>
@@ -1820,7 +1820,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="1">
-        <v>20203</v>
+        <v>20206</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>37</v>
@@ -1862,7 +1862,7 @@
         <v>40</v>
       </c>
       <c r="C59" s="1">
-        <v>20105</v>
+        <v>20110</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>36</v>
@@ -1883,7 +1883,7 @@
         <v>40</v>
       </c>
       <c r="C60" s="1">
-        <v>20203</v>
+        <v>20206</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>37</v>
@@ -1904,7 +1904,7 @@
         <v>41</v>
       </c>
       <c r="C61" s="1">
-        <v>10110</v>
+        <v>10120</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>38</v>
@@ -1925,7 +1925,7 @@
         <v>41</v>
       </c>
       <c r="C62" s="1">
-        <v>10206</v>
+        <v>10209</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>33</v>
@@ -1946,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="C63" s="3">
-        <v>30208</v>
+        <v>30216</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>34</v>
@@ -1967,7 +1967,7 @@
         <v>41</v>
       </c>
       <c r="C64" s="1">
-        <v>10120</v>
+        <v>10130</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>38</v>
@@ -1988,7 +1988,7 @@
         <v>41</v>
       </c>
       <c r="C65" s="1">
-        <v>10212</v>
+        <v>10218</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>33</v>
@@ -2009,7 +2009,7 @@
         <v>41</v>
       </c>
       <c r="C66" s="3">
-        <v>30216</v>
+        <v>30224</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>34</v>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE5E234-5544-4153-A9BF-7DCD3A8238BF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC9539-863D-4499-98A4-BC0CDBD26934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="93">
   <si>
     <t>int</t>
   </si>
@@ -184,6 +184,186 @@
   </si>
   <si>
     <t>몬스터_전사_보스_LV1_3페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대미지 타입 효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_1_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_1_LV2</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_1_LV3</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_1_LV4</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_2_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_2_LV2</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_2_LV3</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_2_LV4</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_3_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_3_LV2</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_3_LV3</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_3_LV4</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1_LV2</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1_LV3</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_1_LV4</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2_LV2</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2_LV3</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_엘리트_2_LV4</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV1</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV2</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV3</t>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV4</t>
+  </si>
+  <si>
+    <t>10103,10103,10103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10105,10105,10105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10107,10107,10107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10104,10104,10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10106,10106,10106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10108,10108,10108</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31115,31215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10103,10103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10103,10103,10103,10103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10103,10103,10103,10103,10103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10104,10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10104,10104,10104,10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10104,10104,10104,10104,10104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10105,10105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10105,10105,10105,10105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10105,10105,10105,10105,10105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31115,31415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가, 자신 받는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10130</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +456,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +482,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,18 +800,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
     <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="15.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="3" customWidth="1"/>
+    <col min="5" max="7" width="15.25" style="3" customWidth="1"/>
     <col min="8" max="16384" width="8.75" style="3"/>
   </cols>
   <sheetData>
@@ -684,7 +869,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -2021,6 +2206,3286 @@
         <v>18</v>
       </c>
       <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>200110101</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="3">
+        <v>10105</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E67" s="3">
+        <v>3</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>200110101</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" s="3">
+        <v>5</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>200110101</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="3">
+        <v>10115</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" s="3">
+        <v>7</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>200110201</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70" s="3">
+        <v>3</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>200110201</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71" s="3">
+        <v>10115</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E71" s="3">
+        <v>5</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>200110201</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C72" s="3">
+        <v>10120</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="3">
+        <v>7</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>200110301</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>200110301</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" s="3">
+        <v>10115</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E74" s="3">
+        <v>4</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>200110301</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="3">
+        <v>10120</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E75" s="3">
+        <v>6</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>200110401</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C76" s="3">
+        <v>10115</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>200110401</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77" s="3">
+        <v>10120</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E77" s="3">
+        <v>4</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>200110401</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="3">
+        <v>10125</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E78" s="3">
+        <v>6</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>200120101</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="3">
+        <v>10105</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E79" s="3">
+        <v>3</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>200120101</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" s="3">
+        <v>5</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>200120201</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C81" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E81" s="3">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>200120201</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E82" s="3">
+        <v>5</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>200120301</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C83" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>200120301</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E84" s="3">
+        <v>4</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>200120401</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C85" s="3">
+        <v>10115</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>200120401</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E86" s="3">
+        <v>4</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>200130101</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" s="3">
+        <v>6</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>200130201</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C88" s="3">
+        <v>10118</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E88" s="3">
+        <v>6</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>200130301</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="3">
+        <v>10118</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E89" s="3">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>200130401</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C90" s="3">
+        <v>10124</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E90" s="3">
+        <v>5</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="3">
+        <v>201110101</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="3">
+        <v>10107</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E91" s="3">
+        <v>3</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="3">
+        <v>201110101</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E92" s="3">
+        <v>5</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="3">
+        <v>201110101</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="3">
+        <v>31120</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E93" s="3">
+        <v>4</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="3">
+        <v>201110201</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C94" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E94" s="3">
+        <v>3</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>201110201</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95" s="3">
+        <v>5</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>201110201</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C96" s="3">
+        <v>31120</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E96" s="3">
+        <v>4</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>201110301</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E97" s="3">
+        <v>3</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>201110301</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E98" s="3">
+        <v>4</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>201110301</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C99" s="3">
+        <v>31120</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E99" s="3">
+        <v>3</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>201110401</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="3">
+        <v>10113</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>201110401</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" s="3">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>201110401</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="3">
+        <v>31120</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E102" s="3">
+        <v>3</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>201120101</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C103" s="3">
+        <v>10107</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E103" s="3">
+        <v>3</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>201120101</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="3">
+        <v>31310</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E104" s="3">
+        <v>2</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>201120101</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="3">
+        <v>31110</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E105" s="3">
+        <v>2</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>201120101</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C106" s="3">
+        <v>10115</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="3">
+        <v>5</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>201120201</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="3">
+        <v>3</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>201120201</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C108" s="3">
+        <v>31310</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E108" s="3">
+        <v>2</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>201120201</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" s="3">
+        <v>31110</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E109" s="3">
+        <v>2</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>201120201</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="3">
+        <v>10120</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E110" s="3">
+        <v>5</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="3">
+        <v>201120301</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="3">
+        <v>2</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="3">
+        <v>201120301</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="3">
+        <v>31310</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E112" s="3">
+        <v>2</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="3">
+        <v>201120301</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="3">
+        <v>31110</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E113" s="3">
+        <v>2</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="3">
+        <v>201120301</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="3">
+        <v>10120</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="3">
+        <v>4</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="3">
+        <v>201120401</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C115" s="3">
+        <v>10113</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" s="3">
+        <v>2</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="3">
+        <v>201120401</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C116" s="3">
+        <v>31310</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E116" s="3">
+        <v>2</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="3">
+        <v>201120401</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C117" s="3">
+        <v>31110</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E117" s="3">
+        <v>2</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="3">
+        <v>201120401</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="3">
+        <v>10125</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" s="3">
+        <v>4</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="3">
+        <v>3</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E120" s="3">
+        <v>2</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" s="3">
+        <v>4</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E122" s="3">
+        <v>3</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="3">
+        <v>2</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" s="3">
+        <v>4</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E125" s="3">
+        <v>3</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E126" s="3">
+        <v>2</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="3">
+        <v>4</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C128" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E128" s="3">
+        <v>3</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E129" s="3">
+        <v>2</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <v>202110101</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" s="3">
+        <v>4</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C131" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E131" s="3">
+        <v>3</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E132" s="3">
+        <v>2</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E133" s="3">
+        <v>4</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C134" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" s="3">
+        <v>3</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E135" s="3">
+        <v>2</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E136" s="3">
+        <v>4</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C137" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" s="3">
+        <v>3</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E138" s="3">
+        <v>2</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" s="3">
+        <v>4</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" s="3">
+        <v>3</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E141" s="3">
+        <v>2</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="3">
+        <v>202110201</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E142" s="3">
+        <v>4</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C143" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="3">
+        <v>3</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E144" s="3">
+        <v>2</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E145" s="3">
+        <v>3</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C146" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E146" s="3">
+        <v>3</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E147" s="3">
+        <v>2</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" s="3">
+        <v>3</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C149" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" s="3">
+        <v>3</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E150" s="3">
+        <v>2</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151" s="3">
+        <v>3</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C152" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E152" s="3">
+        <v>3</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E153" s="3">
+        <v>2</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="3">
+        <v>202110301</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E154" s="3">
+        <v>3</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C155" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E155" s="3">
+        <v>3</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E156" s="3">
+        <v>2</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E157" s="3">
+        <v>3</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C158" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E158" s="3">
+        <v>3</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" s="3">
+        <v>2</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E160" s="3">
+        <v>3</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C161" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E161" s="3">
+        <v>3</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E162" s="3">
+        <v>2</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E163" s="3">
+        <v>3</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C164" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E164" s="3">
+        <v>3</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E165" s="3">
+        <v>2</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="3">
+        <v>202110401</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E166" s="3">
+        <v>3</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C167" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E167" s="3">
+        <v>3</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E168" s="3">
+        <v>2</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E169" s="3">
+        <v>6</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C170" s="3">
+        <v>0</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C171" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E171" s="3">
+        <v>3</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E172" s="3">
+        <v>2</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E173" s="3">
+        <v>5</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C174" s="3">
+        <v>0</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C175" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" s="3">
+        <v>3</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E176" s="3">
+        <v>2</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E177" s="3">
+        <v>4</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C178" s="3">
+        <v>0</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C179" s="3">
+        <v>10108</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E179" s="3">
+        <v>3</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E180" s="3">
+        <v>2</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E181" s="3">
+        <v>3</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="3">
+        <v>202110102</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C182" s="3">
+        <v>0</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C183" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E183" s="3">
+        <v>3</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E184" s="3">
+        <v>2</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E185" s="3">
+        <v>6</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C186" s="3">
+        <v>0</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C187" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E187" s="3">
+        <v>3</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E189" s="3">
+        <v>5</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C190" s="3">
+        <v>0</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C191" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E191" s="3">
+        <v>3</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E192" s="3">
+        <v>2</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E193" s="3">
+        <v>4</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C194" s="3">
+        <v>0</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C195" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E195" s="3">
+        <v>3</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E196" s="3">
+        <v>2</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D197" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E197" s="3">
+        <v>3</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="3">
+        <v>202110202</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C198" s="3">
+        <v>0</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C199" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E199" s="3">
+        <v>3</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E200" s="3">
+        <v>2</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E201" s="3">
+        <v>5</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C202" s="3">
+        <v>0</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C203" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E203" s="3">
+        <v>3</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E204" s="3">
+        <v>2</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E205" s="3">
+        <v>4</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C206" s="3">
+        <v>0</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C207" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E207" s="3">
+        <v>3</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C208" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E208" s="3">
+        <v>2</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C209" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E209" s="3">
+        <v>3</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C210" s="3">
+        <v>0</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C211" s="3">
+        <v>10110</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E211" s="3">
+        <v>3</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C212" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E212" s="3">
+        <v>2</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C213" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E213" s="3">
+        <v>2</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
+        <v>202110302</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C214" s="3">
+        <v>0</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E214" s="3">
+        <v>1</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C215" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E215" s="3">
+        <v>3</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C216" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E216" s="3">
+        <v>2</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C217" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E217" s="3">
+        <v>5</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C218" s="3">
+        <v>0</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E219" s="3">
+        <v>3</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C220" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E220" s="3">
+        <v>2</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C221" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E221" s="3">
+        <v>4</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C222" s="3">
+        <v>0</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C223" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E223" s="3">
+        <v>3</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E224" s="3">
+        <v>2</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C225" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E225" s="3">
+        <v>3</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C227" s="3">
+        <v>10112</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E227" s="3">
+        <v>3</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C228" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E228" s="3">
+        <v>2</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C229" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E229" s="3">
+        <v>2</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="3">
+        <v>202110402</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C230" s="3">
+        <v>0</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC9539-863D-4499-98A4-BC0CDBD26934}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA04D4-F790-4930-BED2-FCDF248C439D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="95">
   <si>
     <t>int</t>
   </si>
@@ -291,18 +291,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주는 피해량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>받는 피해량 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31115,31215</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10103,10103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -343,14 +335,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31115,31415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주는 피해량 증가, 자신 받는 피해량 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,6 +348,29 @@
   </si>
   <si>
     <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가_고정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31501,31215</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31501,31415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가_고정, 자신 받는 피해량 증가</t>
+  </si>
+  <si>
+    <t>주는 피해량 증가_고정, 자신 받는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주는 피해량 증가_고정, 주는 피해량 증가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -803,8 +810,8 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="3" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -869,7 +876,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -2209,7 +2216,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>200110101</v>
+        <v>210010101</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>44</v>
@@ -2229,7 +2236,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>200110101</v>
+        <v>210010101</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>44</v>
@@ -2249,7 +2256,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>200110101</v>
+        <v>210010101</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>44</v>
@@ -2269,7 +2276,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>200110201</v>
+        <v>210010201</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>45</v>
@@ -2289,7 +2296,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>200110201</v>
+        <v>210010201</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>45</v>
@@ -2309,7 +2316,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>200110201</v>
+        <v>210010201</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>45</v>
@@ -2329,7 +2336,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>200110301</v>
+        <v>210010301</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>46</v>
@@ -2349,7 +2356,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>200110301</v>
+        <v>210010301</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>46</v>
@@ -2369,7 +2376,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>200110301</v>
+        <v>210010301</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>46</v>
@@ -2389,7 +2396,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>200110401</v>
+        <v>210010401</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>47</v>
@@ -2409,7 +2416,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>200110401</v>
+        <v>210010401</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>47</v>
@@ -2429,7 +2436,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>200110401</v>
+        <v>210010401</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>47</v>
@@ -2449,7 +2456,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>200120101</v>
+        <v>210020101</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>48</v>
@@ -2469,7 +2476,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>200120101</v>
+        <v>210020101</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>48</v>
@@ -2489,7 +2496,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>200120201</v>
+        <v>210020201</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>49</v>
@@ -2509,7 +2516,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>200120201</v>
+        <v>210020201</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>49</v>
@@ -2529,7 +2536,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>200120301</v>
+        <v>210020301</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>50</v>
@@ -2549,7 +2556,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>200120301</v>
+        <v>210020301</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>50</v>
@@ -2569,7 +2576,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>200120401</v>
+        <v>210020401</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>51</v>
@@ -2589,7 +2596,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>200120401</v>
+        <v>210020401</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>51</v>
@@ -2609,7 +2616,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>200130101</v>
+        <v>210030101</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>52</v>
@@ -2629,7 +2636,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>200130201</v>
+        <v>210030201</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>53</v>
@@ -2649,7 +2656,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>200130301</v>
+        <v>210030301</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>54</v>
@@ -2669,7 +2676,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>200130401</v>
+        <v>210030401</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>55</v>
@@ -2689,7 +2696,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>201110101</v>
+        <v>211010101</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>56</v>
@@ -2709,7 +2716,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>201110101</v>
+        <v>211010101</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>56</v>
@@ -2729,16 +2736,16 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>201110101</v>
+        <v>211010101</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C93" s="3">
-        <v>31120</v>
+        <v>31501</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E93" s="3">
         <v>4</v>
@@ -2749,7 +2756,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>201110201</v>
+        <v>211010201</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>57</v>
@@ -2769,7 +2776,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>201110201</v>
+        <v>211010201</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>57</v>
@@ -2789,16 +2796,16 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>201110201</v>
+        <v>211010201</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C96" s="3">
-        <v>31120</v>
+        <v>31501</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E96" s="3">
         <v>4</v>
@@ -2809,7 +2816,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>201110301</v>
+        <v>211010301</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>58</v>
@@ -2829,7 +2836,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>201110301</v>
+        <v>211010301</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>58</v>
@@ -2849,16 +2856,16 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>201110301</v>
+        <v>211010301</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C99" s="3">
-        <v>31120</v>
+        <v>31501</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E99" s="3">
         <v>3</v>
@@ -2869,7 +2876,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>201110401</v>
+        <v>211010401</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>59</v>
@@ -2889,7 +2896,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>201110401</v>
+        <v>211010401</v>
       </c>
       <c r="B101" s="3" t="s">
         <v>59</v>
@@ -2909,16 +2916,16 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>201110401</v>
+        <v>211010401</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>59</v>
       </c>
       <c r="C102" s="3">
-        <v>31120</v>
+        <v>31501</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E102" s="3">
         <v>3</v>
@@ -2929,7 +2936,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>201120101</v>
+        <v>211020101</v>
       </c>
       <c r="B103" s="3" t="s">
         <v>60</v>
@@ -2949,7 +2956,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>201120101</v>
+        <v>211020101</v>
       </c>
       <c r="B104" s="3" t="s">
         <v>60</v>
@@ -2958,7 +2965,7 @@
         <v>31310</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E104" s="3">
         <v>2</v>
@@ -2969,16 +2976,16 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>201120101</v>
+        <v>211020101</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C105" s="3">
-        <v>31110</v>
+        <v>31601</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E105" s="3">
         <v>2</v>
@@ -2989,7 +2996,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>201120101</v>
+        <v>211020101</v>
       </c>
       <c r="B106" s="3" t="s">
         <v>60</v>
@@ -3009,7 +3016,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>201120201</v>
+        <v>211020201</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>61</v>
@@ -3029,7 +3036,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>201120201</v>
+        <v>211020201</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>61</v>
@@ -3038,7 +3045,7 @@
         <v>31310</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E108" s="3">
         <v>2</v>
@@ -3049,16 +3056,16 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>201120201</v>
+        <v>211020201</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C109" s="3">
-        <v>31110</v>
+        <v>31601</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E109" s="3">
         <v>2</v>
@@ -3069,7 +3076,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>201120201</v>
+        <v>211020201</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>61</v>
@@ -3089,7 +3096,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>201120301</v>
+        <v>211020301</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>62</v>
@@ -3109,7 +3116,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
-        <v>201120301</v>
+        <v>211020301</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>62</v>
@@ -3118,7 +3125,7 @@
         <v>31310</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E112" s="3">
         <v>2</v>
@@ -3129,16 +3136,16 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
-        <v>201120301</v>
+        <v>211020301</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C113" s="3">
-        <v>31110</v>
+        <v>31601</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E113" s="3">
         <v>2</v>
@@ -3149,7 +3156,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
-        <v>201120301</v>
+        <v>211020301</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>62</v>
@@ -3169,7 +3176,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>201120401</v>
+        <v>211020401</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>63</v>
@@ -3189,7 +3196,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>201120401</v>
+        <v>211020401</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>63</v>
@@ -3198,7 +3205,7 @@
         <v>31310</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E116" s="3">
         <v>2</v>
@@ -3209,16 +3216,16 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>201120401</v>
+        <v>211020401</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>63</v>
       </c>
       <c r="C117" s="3">
-        <v>31110</v>
+        <v>31601</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="E117" s="3">
         <v>2</v>
@@ -3229,7 +3236,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>201120401</v>
+        <v>211020401</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>63</v>
@@ -3249,7 +3256,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>64</v>
@@ -3269,16 +3276,16 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E120" s="3">
         <v>2</v>
@@ -3289,13 +3296,13 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>38</v>
@@ -3309,7 +3316,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>64</v>
@@ -3329,16 +3336,16 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E123" s="3">
         <v>2</v>
@@ -3349,7 +3356,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>64</v>
@@ -3369,7 +3376,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>64</v>
@@ -3389,16 +3396,16 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E126" s="3">
         <v>2</v>
@@ -3409,13 +3416,13 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B127" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>38</v>
@@ -3429,7 +3436,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>64</v>
@@ -3449,16 +3456,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E129" s="3">
         <v>2</v>
@@ -3469,13 +3476,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>202110101</v>
+        <v>212010101</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>38</v>
@@ -3489,7 +3496,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>65</v>
@@ -3509,16 +3516,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E132" s="3">
         <v>2</v>
@@ -3529,13 +3536,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>38</v>
@@ -3549,7 +3556,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>65</v>
@@ -3569,16 +3576,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E135" s="3">
         <v>2</v>
@@ -3589,7 +3596,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>65</v>
@@ -3609,7 +3616,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>65</v>
@@ -3629,16 +3636,16 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E138" s="3">
         <v>2</v>
@@ -3649,13 +3656,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>38</v>
@@ -3669,7 +3676,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B140" s="3" t="s">
         <v>65</v>
@@ -3689,16 +3696,16 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B141" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E141" s="3">
         <v>2</v>
@@ -3709,13 +3716,13 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>202110201</v>
+        <v>212010201</v>
       </c>
       <c r="B142" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>38</v>
@@ -3729,7 +3736,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B143" s="3" t="s">
         <v>66</v>
@@ -3749,16 +3756,16 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B144" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E144" s="3">
         <v>2</v>
@@ -3769,13 +3776,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B145" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>38</v>
@@ -3789,7 +3796,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B146" s="3" t="s">
         <v>66</v>
@@ -3809,16 +3816,16 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B147" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E147" s="3">
         <v>2</v>
@@ -3829,7 +3836,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B148" s="3" t="s">
         <v>66</v>
@@ -3849,7 +3856,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B149" s="3" t="s">
         <v>66</v>
@@ -3869,16 +3876,16 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B150" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E150" s="3">
         <v>2</v>
@@ -3889,13 +3896,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B151" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>38</v>
@@ -3909,7 +3916,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B152" s="3" t="s">
         <v>66</v>
@@ -3929,16 +3936,16 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B153" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E153" s="3">
         <v>2</v>
@@ -3949,13 +3956,13 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>202110301</v>
+        <v>212010301</v>
       </c>
       <c r="B154" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>38</v>
@@ -3969,7 +3976,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B155" s="3" t="s">
         <v>67</v>
@@ -3989,16 +3996,16 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B156" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E156" s="3">
         <v>2</v>
@@ -4009,13 +4016,13 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B157" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>38</v>
@@ -4029,7 +4036,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B158" s="3" t="s">
         <v>67</v>
@@ -4049,16 +4056,16 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B159" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E159" s="3">
         <v>2</v>
@@ -4069,7 +4076,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B160" s="3" t="s">
         <v>67</v>
@@ -4089,7 +4096,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B161" s="3" t="s">
         <v>67</v>
@@ -4109,16 +4116,16 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B162" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="E162" s="3">
         <v>2</v>
@@ -4129,13 +4136,13 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B163" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>38</v>
@@ -4149,7 +4156,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B164" s="3" t="s">
         <v>67</v>
@@ -4169,16 +4176,16 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B165" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="E165" s="3">
         <v>2</v>
@@ -4189,13 +4196,13 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>202110401</v>
+        <v>212010401</v>
       </c>
       <c r="B166" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>38</v>
@@ -4209,7 +4216,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B167" s="3" t="s">
         <v>64</v>
@@ -4229,16 +4236,16 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B168" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E168" s="3">
         <v>2</v>
@@ -4249,13 +4256,13 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B169" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>38</v>
@@ -4269,7 +4276,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B170" s="3" t="s">
         <v>64</v>
@@ -4278,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -4289,7 +4296,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B171" s="3" t="s">
         <v>64</v>
@@ -4309,16 +4316,16 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B172" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E172" s="3">
         <v>2</v>
@@ -4329,13 +4336,13 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B173" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>38</v>
@@ -4349,7 +4356,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>64</v>
@@ -4358,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E174" s="3">
         <v>1</v>
@@ -4369,7 +4376,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>64</v>
@@ -4389,16 +4396,16 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E176" s="3">
         <v>2</v>
@@ -4409,13 +4416,13 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>38</v>
@@ -4429,7 +4436,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B178" s="3" t="s">
         <v>64</v>
@@ -4438,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
@@ -4449,7 +4456,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>64</v>
@@ -4469,16 +4476,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B180" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E180" s="3">
         <v>2</v>
@@ -4489,13 +4496,13 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>38</v>
@@ -4509,7 +4516,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>202110102</v>
+        <v>212010102</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>64</v>
@@ -4518,7 +4525,7 @@
         <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
@@ -4529,7 +4536,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>65</v>
@@ -4549,16 +4556,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E184" s="3">
         <v>2</v>
@@ -4569,13 +4576,13 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>38</v>
@@ -4589,7 +4596,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>65</v>
@@ -4598,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E186" s="3">
         <v>1</v>
@@ -4609,7 +4616,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>65</v>
@@ -4629,16 +4636,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E188" s="3">
         <v>2</v>
@@ -4649,13 +4656,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>38</v>
@@ -4669,7 +4676,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>65</v>
@@ -4678,7 +4685,7 @@
         <v>0</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -4689,7 +4696,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B191" s="3" t="s">
         <v>65</v>
@@ -4709,16 +4716,16 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B192" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E192" s="3">
         <v>2</v>
@@ -4729,13 +4736,13 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>38</v>
@@ -4749,7 +4756,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B194" s="3" t="s">
         <v>65</v>
@@ -4758,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E194" s="3">
         <v>1</v>
@@ -4769,7 +4776,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B195" s="3" t="s">
         <v>65</v>
@@ -4789,16 +4796,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B196" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E196" s="3">
         <v>2</v>
@@ -4809,13 +4816,13 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B197" s="3" t="s">
         <v>65</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>38</v>
@@ -4829,7 +4836,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
-        <v>202110202</v>
+        <v>212010202</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>65</v>
@@ -4838,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E198" s="3">
         <v>1</v>
@@ -4849,7 +4856,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B199" s="3" t="s">
         <v>66</v>
@@ -4869,16 +4876,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E200" s="3">
         <v>2</v>
@@ -4889,13 +4896,13 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>38</v>
@@ -4909,7 +4916,7 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>66</v>
@@ -4918,7 +4925,7 @@
         <v>0</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
@@ -4929,7 +4936,7 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>66</v>
@@ -4949,16 +4956,16 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E204" s="3">
         <v>2</v>
@@ -4969,13 +4976,13 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>38</v>
@@ -4989,7 +4996,7 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>66</v>
@@ -4998,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E206" s="3">
         <v>1</v>
@@ -5009,7 +5016,7 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>66</v>
@@ -5029,16 +5036,16 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E208" s="3">
         <v>2</v>
@@ -5049,13 +5056,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>38</v>
@@ -5069,7 +5076,7 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>66</v>
@@ -5078,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E210" s="3">
         <v>1</v>
@@ -5089,7 +5096,7 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>66</v>
@@ -5109,16 +5116,16 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E212" s="3">
         <v>2</v>
@@ -5129,13 +5136,13 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>38</v>
@@ -5149,7 +5156,7 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>202110302</v>
+        <v>212010302</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>66</v>
@@ -5158,7 +5165,7 @@
         <v>0</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E214" s="3">
         <v>1</v>
@@ -5169,7 +5176,7 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>67</v>
@@ -5189,16 +5196,16 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E216" s="3">
         <v>2</v>
@@ -5209,13 +5216,13 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>38</v>
@@ -5229,7 +5236,7 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>67</v>
@@ -5238,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E218" s="3">
         <v>1</v>
@@ -5249,7 +5256,7 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>67</v>
@@ -5269,16 +5276,16 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E220" s="3">
         <v>2</v>
@@ -5289,13 +5296,13 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>38</v>
@@ -5309,7 +5316,7 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>67</v>
@@ -5318,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E222" s="3">
         <v>1</v>
@@ -5329,7 +5336,7 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>67</v>
@@ -5349,16 +5356,16 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E224" s="3">
         <v>2</v>
@@ -5369,13 +5376,13 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>38</v>
@@ -5389,7 +5396,7 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>67</v>
@@ -5398,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E226" s="3">
         <v>1</v>
@@ -5409,7 +5416,7 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>67</v>
@@ -5429,16 +5436,16 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E228" s="3">
         <v>2</v>
@@ -5449,13 +5456,13 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B229" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>38</v>
@@ -5469,7 +5476,7 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>202110402</v>
+        <v>212010402</v>
       </c>
       <c r="B230" s="3" t="s">
         <v>67</v>
@@ -5478,7 +5485,7 @@
         <v>0</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E230" s="3">
         <v>1</v>

--- a/GameData/Excel/skill_group.xlsx
+++ b/GameData/Excel/skill_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\OneDrive\문서\GitHub\Go.D.Taekwon\GameData\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CDA04D4-F790-4930-BED2-FCDF248C439D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{018C4296-484C-4859-8FA8-1080D9F36C55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="345" windowWidth="46290" windowHeight="25680" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="99">
   <si>
     <t>int</t>
   </si>
@@ -255,18 +255,6 @@
     <t>몬스터_공격형_엘리트_2_LV4</t>
   </si>
   <si>
-    <t>몬스터_공격형_보스_1_LV1</t>
-  </si>
-  <si>
-    <t>몬스터_공격형_보스_1_LV2</t>
-  </si>
-  <si>
-    <t>몬스터_공격형_보스_1_LV3</t>
-  </si>
-  <si>
-    <t>몬스터_공격형_보스_1_LV4</t>
-  </si>
-  <si>
     <t>10103,10103,10103</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,6 +359,38 @@
   </si>
   <si>
     <t>주는 피해량 증가_고정, 주는 피해량 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV1_2페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV2_2페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV3_2페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV4_2페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV4_1페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV3_1페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV2_1페이즈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터_공격형_보스_1_LV1_1페이즈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,14 +830,14 @@
   <dimension ref="A1:G230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A192" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D207" sqref="D207"/>
+      <pane ySplit="3" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B145" sqref="B145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" style="3" customWidth="1"/>
-    <col min="2" max="2" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="22.875" style="3" customWidth="1"/>
     <col min="5" max="7" width="15.25" style="3" customWidth="1"/>
@@ -876,7 +896,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -2228,7 +2248,7 @@
         <v>42</v>
       </c>
       <c r="E67" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>43</v>
@@ -2248,7 +2268,7 @@
         <v>42</v>
       </c>
       <c r="E68" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>43</v>
@@ -2268,7 +2288,7 @@
         <v>42</v>
       </c>
       <c r="E69" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>43</v>
@@ -2288,7 +2308,7 @@
         <v>42</v>
       </c>
       <c r="E70" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>43</v>
@@ -2308,7 +2328,7 @@
         <v>42</v>
       </c>
       <c r="E71" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>43</v>
@@ -2328,7 +2348,7 @@
         <v>42</v>
       </c>
       <c r="E72" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>43</v>
@@ -2348,7 +2368,7 @@
         <v>42</v>
       </c>
       <c r="E73" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>43</v>
@@ -2368,7 +2388,7 @@
         <v>42</v>
       </c>
       <c r="E74" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>43</v>
@@ -2388,7 +2408,7 @@
         <v>42</v>
       </c>
       <c r="E75" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>43</v>
@@ -2408,7 +2428,7 @@
         <v>42</v>
       </c>
       <c r="E76" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>43</v>
@@ -2428,7 +2448,7 @@
         <v>42</v>
       </c>
       <c r="E77" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F77" s="3" t="s">
         <v>43</v>
@@ -2448,7 +2468,7 @@
         <v>42</v>
       </c>
       <c r="E78" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F78" s="3" t="s">
         <v>43</v>
@@ -2468,7 +2488,7 @@
         <v>42</v>
       </c>
       <c r="E79" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" s="3" t="s">
         <v>43</v>
@@ -2482,13 +2502,13 @@
         <v>48</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E80" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>43</v>
@@ -2508,7 +2528,7 @@
         <v>42</v>
       </c>
       <c r="E81" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>43</v>
@@ -2522,13 +2542,13 @@
         <v>49</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E82" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" s="3" t="s">
         <v>43</v>
@@ -2548,7 +2568,7 @@
         <v>42</v>
       </c>
       <c r="E83" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>43</v>
@@ -2562,13 +2582,13 @@
         <v>50</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E84" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>43</v>
@@ -2588,7 +2608,7 @@
         <v>42</v>
       </c>
       <c r="E85" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>43</v>
@@ -2602,13 +2622,13 @@
         <v>51</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E86" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>43</v>
@@ -2628,7 +2648,7 @@
         <v>38</v>
       </c>
       <c r="E87" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>18</v>
@@ -2648,7 +2668,7 @@
         <v>38</v>
       </c>
       <c r="E88" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>18</v>
@@ -2668,7 +2688,7 @@
         <v>38</v>
       </c>
       <c r="E89" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>18</v>
@@ -2688,7 +2708,7 @@
         <v>38</v>
       </c>
       <c r="E90" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>18</v>
@@ -2708,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="E91" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>18</v>
@@ -2722,13 +2742,13 @@
         <v>56</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E92" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>18</v>
@@ -2745,10 +2765,10 @@
         <v>31501</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E93" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>18</v>
@@ -2768,7 +2788,7 @@
         <v>38</v>
       </c>
       <c r="E94" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>18</v>
@@ -2782,13 +2802,13 @@
         <v>57</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E95" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>18</v>
@@ -2805,10 +2825,10 @@
         <v>31501</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E96" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>18</v>
@@ -2828,7 +2848,7 @@
         <v>38</v>
       </c>
       <c r="E97" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
         <v>18</v>
@@ -2842,13 +2862,13 @@
         <v>58</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E98" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>18</v>
@@ -2865,10 +2885,10 @@
         <v>31501</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E99" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" s="3" t="s">
         <v>18</v>
@@ -2888,7 +2908,7 @@
         <v>38</v>
       </c>
       <c r="E100" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>18</v>
@@ -2902,13 +2922,13 @@
         <v>59</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E101" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" s="3" t="s">
         <v>18</v>
@@ -2925,10 +2945,10 @@
         <v>31501</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E102" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>18</v>
@@ -2965,7 +2985,7 @@
         <v>31310</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E104" s="3">
         <v>2</v>
@@ -2985,7 +3005,7 @@
         <v>31601</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E105" s="3">
         <v>2</v>
@@ -3045,7 +3065,7 @@
         <v>31310</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E108" s="3">
         <v>2</v>
@@ -3065,7 +3085,7 @@
         <v>31601</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E109" s="3">
         <v>2</v>
@@ -3125,10 +3145,10 @@
         <v>31310</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E112" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F112" s="3" t="s">
         <v>18</v>
@@ -3145,10 +3165,10 @@
         <v>31601</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E113" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F113" s="3" t="s">
         <v>18</v>
@@ -3205,10 +3225,10 @@
         <v>31310</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E116" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>18</v>
@@ -3225,10 +3245,10 @@
         <v>31601</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E117" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F117" s="3" t="s">
         <v>18</v>
@@ -3259,7 +3279,7 @@
         <v>212010101</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C119" s="3">
         <v>10108</v>
@@ -3279,13 +3299,13 @@
         <v>212010101</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C120" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E120" s="3">
         <v>2</v>
@@ -3299,10 +3319,10 @@
         <v>212010101</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>38</v>
@@ -3319,7 +3339,7 @@
         <v>212010101</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C122" s="3">
         <v>10108</v>
@@ -3339,13 +3359,13 @@
         <v>212010101</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C123" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E123" s="3">
         <v>2</v>
@@ -3359,10 +3379,10 @@
         <v>212010101</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C124" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>38</v>
@@ -3379,7 +3399,7 @@
         <v>212010101</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C125" s="3">
         <v>10108</v>
@@ -3399,13 +3419,13 @@
         <v>212010101</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C126" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E126" s="3">
         <v>2</v>
@@ -3419,10 +3439,10 @@
         <v>212010101</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>38</v>
@@ -3439,7 +3459,7 @@
         <v>212010101</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C128" s="3">
         <v>10108</v>
@@ -3459,13 +3479,13 @@
         <v>212010101</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C129" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E129" s="3">
         <v>2</v>
@@ -3479,10 +3499,10 @@
         <v>212010101</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>38</v>
@@ -3499,7 +3519,7 @@
         <v>212010201</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C131" s="3">
         <v>10110</v>
@@ -3519,13 +3539,13 @@
         <v>212010201</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C132" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E132" s="3">
         <v>2</v>
@@ -3539,10 +3559,10 @@
         <v>212010201</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>38</v>
@@ -3559,7 +3579,7 @@
         <v>212010201</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C134" s="3">
         <v>10108</v>
@@ -3579,13 +3599,13 @@
         <v>212010201</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C135" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D135" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E135" s="3">
         <v>2</v>
@@ -3599,10 +3619,10 @@
         <v>212010201</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>38</v>
@@ -3619,7 +3639,7 @@
         <v>212010201</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C137" s="3">
         <v>10108</v>
@@ -3639,13 +3659,13 @@
         <v>212010201</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C138" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E138" s="3">
         <v>2</v>
@@ -3659,10 +3679,10 @@
         <v>212010201</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>38</v>
@@ -3679,7 +3699,7 @@
         <v>212010201</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C140" s="3">
         <v>10108</v>
@@ -3699,13 +3719,13 @@
         <v>212010201</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C141" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="E141" s="3">
         <v>2</v>
@@ -3719,10 +3739,10 @@
         <v>212010201</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>38</v>
@@ -3739,7 +3759,7 @@
         <v>212010301</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C143" s="3">
         <v>10110</v>
@@ -3748,7 +3768,7 @@
         <v>38</v>
       </c>
       <c r="E143" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>18</v>
@@ -3759,16 +3779,16 @@
         <v>212010301</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C144" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D144" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E144" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F144" s="3" t="s">
         <v>18</v>
@@ -3779,10 +3799,10 @@
         <v>212010301</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>38</v>
@@ -3799,7 +3819,7 @@
         <v>212010301</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C146" s="3">
         <v>10110</v>
@@ -3808,7 +3828,7 @@
         <v>38</v>
       </c>
       <c r="E146" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>18</v>
@@ -3819,16 +3839,16 @@
         <v>212010301</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C147" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D147" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E147" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F147" s="3" t="s">
         <v>18</v>
@@ -3839,10 +3859,10 @@
         <v>212010301</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>38</v>
@@ -3859,7 +3879,7 @@
         <v>212010301</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C149" s="3">
         <v>10110</v>
@@ -3868,7 +3888,7 @@
         <v>38</v>
       </c>
       <c r="E149" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F149" s="3" t="s">
         <v>18</v>
@@ -3879,16 +3899,16 @@
         <v>212010301</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C150" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D150" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D150" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E150" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F150" s="3" t="s">
         <v>18</v>
@@ -3899,10 +3919,10 @@
         <v>212010301</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>38</v>
@@ -3919,7 +3939,7 @@
         <v>212010301</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C152" s="3">
         <v>10110</v>
@@ -3928,7 +3948,7 @@
         <v>38</v>
       </c>
       <c r="E152" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F152" s="3" t="s">
         <v>18</v>
@@ -3939,16 +3959,16 @@
         <v>212010301</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C153" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D153" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D153" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E153" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F153" s="3" t="s">
         <v>18</v>
@@ -3959,10 +3979,10 @@
         <v>212010301</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>38</v>
@@ -3979,7 +3999,7 @@
         <v>212010401</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C155" s="3">
         <v>10112</v>
@@ -3988,7 +4008,7 @@
         <v>38</v>
       </c>
       <c r="E155" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F155" s="3" t="s">
         <v>18</v>
@@ -3999,16 +4019,16 @@
         <v>212010401</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C156" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D156" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E156" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F156" s="3" t="s">
         <v>18</v>
@@ -4019,10 +4039,10 @@
         <v>212010401</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>38</v>
@@ -4039,7 +4059,7 @@
         <v>212010401</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C158" s="3">
         <v>10112</v>
@@ -4048,7 +4068,7 @@
         <v>38</v>
       </c>
       <c r="E158" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F158" s="3" t="s">
         <v>18</v>
@@ -4059,16 +4079,16 @@
         <v>212010401</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C159" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D159" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D159" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E159" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F159" s="3" t="s">
         <v>18</v>
@@ -4079,10 +4099,10 @@
         <v>212010401</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>38</v>
@@ -4099,7 +4119,7 @@
         <v>212010401</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C161" s="3">
         <v>10112</v>
@@ -4108,7 +4128,7 @@
         <v>38</v>
       </c>
       <c r="E161" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F161" s="3" t="s">
         <v>18</v>
@@ -4119,16 +4139,16 @@
         <v>212010401</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C162" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D162" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="E162" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F162" s="3" t="s">
         <v>18</v>
@@ -4139,10 +4159,10 @@
         <v>212010401</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C163" s="10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>38</v>
@@ -4159,7 +4179,7 @@
         <v>212010401</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C164" s="3">
         <v>10112</v>
@@ -4168,7 +4188,7 @@
         <v>38</v>
       </c>
       <c r="E164" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F164" s="3" t="s">
         <v>18</v>
@@ -4179,16 +4199,16 @@
         <v>212010401</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E165" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F165" s="3" t="s">
         <v>18</v>
@@ -4199,10 +4219,10 @@
         <v>212010401</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>38</v>
@@ -4219,7 +4239,7 @@
         <v>212010102</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C167" s="3">
         <v>10108</v>
@@ -4228,7 +4248,7 @@
         <v>38</v>
       </c>
       <c r="E167" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F167" s="3" t="s">
         <v>18</v>
@@ -4239,13 +4259,13 @@
         <v>212010102</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E168" s="3">
         <v>2</v>
@@ -4259,16 +4279,16 @@
         <v>212010102</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E169" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>18</v>
@@ -4279,13 +4299,13 @@
         <v>212010102</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C170" s="3">
         <v>0</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E170" s="3">
         <v>1</v>
@@ -4299,7 +4319,7 @@
         <v>212010102</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C171" s="3">
         <v>10108</v>
@@ -4308,7 +4328,7 @@
         <v>38</v>
       </c>
       <c r="E171" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F171" s="3" t="s">
         <v>18</v>
@@ -4319,13 +4339,13 @@
         <v>212010102</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C172" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E172" s="3">
         <v>2</v>
@@ -4339,16 +4359,16 @@
         <v>212010102</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E173" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F173" s="3" t="s">
         <v>18</v>
@@ -4359,13 +4379,13 @@
         <v>212010102</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C174" s="3">
         <v>0</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E174" s="3">
         <v>1</v>
@@ -4379,7 +4399,7 @@
         <v>212010102</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C175" s="3">
         <v>10108</v>
@@ -4388,7 +4408,7 @@
         <v>38</v>
       </c>
       <c r="E175" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F175" s="3" t="s">
         <v>18</v>
@@ -4399,13 +4419,13 @@
         <v>212010102</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C176" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E176" s="3">
         <v>2</v>
@@ -4419,16 +4439,16 @@
         <v>212010102</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C177" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E177" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F177" s="3" t="s">
         <v>18</v>
@@ -4439,13 +4459,13 @@
         <v>212010102</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C178" s="3">
         <v>0</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E178" s="3">
         <v>1</v>
@@ -4459,7 +4479,7 @@
         <v>212010102</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C179" s="3">
         <v>10108</v>
@@ -4468,7 +4488,7 @@
         <v>38</v>
       </c>
       <c r="E179" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>18</v>
@@ -4479,13 +4499,13 @@
         <v>212010102</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E180" s="3">
         <v>2</v>
@@ -4499,16 +4519,16 @@
         <v>212010102</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D181" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E181" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F181" s="3" t="s">
         <v>18</v>
@@ -4519,13 +4539,13 @@
         <v>212010102</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="C182" s="3">
         <v>0</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E182" s="3">
         <v>1</v>
@@ -4539,7 +4559,7 @@
         <v>212010202</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C183" s="3">
         <v>10110</v>
@@ -4548,7 +4568,7 @@
         <v>38</v>
       </c>
       <c r="E183" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F183" s="3" t="s">
         <v>18</v>
@@ -4559,13 +4579,13 @@
         <v>212010202</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C184" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E184" s="3">
         <v>2</v>
@@ -4579,10 +4599,10 @@
         <v>212010202</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C185" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D185" s="3" t="s">
         <v>38</v>
@@ -4599,13 +4619,13 @@
         <v>212010202</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C186" s="3">
         <v>0</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E186" s="3">
         <v>1</v>
@@ -4619,7 +4639,7 @@
         <v>212010202</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C187" s="3">
         <v>10110</v>
@@ -4628,7 +4648,7 @@
         <v>38</v>
       </c>
       <c r="E187" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F187" s="3" t="s">
         <v>18</v>
@@ -4639,13 +4659,13 @@
         <v>212010202</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C188" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E188" s="3">
         <v>2</v>
@@ -4659,10 +4679,10 @@
         <v>212010202</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C189" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>38</v>
@@ -4679,13 +4699,13 @@
         <v>212010202</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C190" s="3">
         <v>0</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E190" s="3">
         <v>1</v>
@@ -4699,7 +4719,7 @@
         <v>212010202</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C191" s="3">
         <v>10110</v>
@@ -4708,7 +4728,7 @@
         <v>38</v>
       </c>
       <c r="E191" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F191" s="3" t="s">
         <v>18</v>
@@ -4719,13 +4739,13 @@
         <v>212010202</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E192" s="3">
         <v>2</v>
@@ -4739,10 +4759,10 @@
         <v>212010202</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C193" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>38</v>
@@ -4759,13 +4779,13 @@
         <v>212010202</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C194" s="3">
         <v>0</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E194" s="3">
         <v>1</v>
@@ -4779,7 +4799,7 @@
         <v>212010202</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C195" s="3">
         <v>10110</v>
@@ -4788,7 +4808,7 @@
         <v>38</v>
       </c>
       <c r="E195" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F195" s="3" t="s">
         <v>18</v>
@@ -4799,13 +4819,13 @@
         <v>212010202</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C196" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E196" s="3">
         <v>2</v>
@@ -4819,10 +4839,10 @@
         <v>212010202</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C197" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>38</v>
@@ -4839,13 +4859,13 @@
         <v>212010202</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="C198" s="3">
         <v>0</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E198" s="3">
         <v>1</v>
@@ -4859,7 +4879,7 @@
         <v>212010302</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C199" s="3">
         <v>10110</v>
@@ -4868,7 +4888,7 @@
         <v>38</v>
       </c>
       <c r="E199" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F199" s="3" t="s">
         <v>18</v>
@@ -4879,13 +4899,13 @@
         <v>212010302</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C200" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E200" s="3">
         <v>2</v>
@@ -4899,10 +4919,10 @@
         <v>212010302</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C201" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D201" s="3" t="s">
         <v>38</v>
@@ -4919,13 +4939,13 @@
         <v>212010302</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C202" s="3">
         <v>0</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E202" s="3">
         <v>1</v>
@@ -4939,7 +4959,7 @@
         <v>212010302</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C203" s="3">
         <v>10110</v>
@@ -4948,7 +4968,7 @@
         <v>38</v>
       </c>
       <c r="E203" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F203" s="3" t="s">
         <v>18</v>
@@ -4959,13 +4979,13 @@
         <v>212010302</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C204" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D204" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E204" s="3">
         <v>2</v>
@@ -4979,10 +4999,10 @@
         <v>212010302</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C205" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>38</v>
@@ -4999,13 +5019,13 @@
         <v>212010302</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C206" s="3">
         <v>0</v>
       </c>
       <c r="D206" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E206" s="3">
         <v>1</v>
@@ -5019,7 +5039,7 @@
         <v>212010302</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C207" s="3">
         <v>10110</v>
@@ -5028,7 +5048,7 @@
         <v>38</v>
       </c>
       <c r="E207" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F207" s="3" t="s">
         <v>18</v>
@@ -5039,13 +5059,13 @@
         <v>212010302</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C208" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D208" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E208" s="3">
         <v>2</v>
@@ -5059,10 +5079,10 @@
         <v>212010302</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C209" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D209" s="3" t="s">
         <v>38</v>
@@ -5079,13 +5099,13 @@
         <v>212010302</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C210" s="3">
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E210" s="3">
         <v>1</v>
@@ -5099,7 +5119,7 @@
         <v>212010302</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C211" s="3">
         <v>10110</v>
@@ -5108,7 +5128,7 @@
         <v>38</v>
       </c>
       <c r="E211" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F211" s="3" t="s">
         <v>18</v>
@@ -5119,13 +5139,13 @@
         <v>212010302</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C212" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D212" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E212" s="3">
         <v>2</v>
@@ -5139,10 +5159,10 @@
         <v>212010302</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C213" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D213" s="3" t="s">
         <v>38</v>
@@ -5159,13 +5179,13 @@
         <v>212010302</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C214" s="3">
         <v>0</v>
       </c>
       <c r="D214" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E214" s="3">
         <v>1</v>
@@ -5179,7 +5199,7 @@
         <v>212010402</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C215" s="3">
         <v>10112</v>
@@ -5188,7 +5208,7 @@
         <v>38</v>
       </c>
       <c r="E215" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F215" s="3" t="s">
         <v>18</v>
@@ -5199,13 +5219,13 @@
         <v>212010402</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C216" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D216" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E216" s="3">
         <v>2</v>
@@ -5219,10 +5239,10 @@
         <v>212010402</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C217" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>38</v>
@@ -5239,13 +5259,13 @@
         <v>212010402</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C218" s="3">
         <v>0</v>
       </c>
       <c r="D218" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E218" s="3">
         <v>1</v>
@@ -5259,7 +5279,7 @@
         <v>212010402</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C219" s="3">
         <v>10112</v>
@@ -5268,7 +5288,7 @@
         <v>38</v>
       </c>
       <c r="E219" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F219" s="3" t="s">
         <v>18</v>
@@ -5279,13 +5299,13 @@
         <v>212010402</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C220" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E220" s="3">
         <v>2</v>
@@ -5299,10 +5319,10 @@
         <v>212010402</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C221" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>38</v>
@@ -5319,13 +5339,13 @@
         <v>212010402</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C222" s="3">
         <v>0</v>
       </c>
       <c r="D222" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E222" s="3">
         <v>1</v>
@@ -5339,7 +5359,7 @@
         <v>212010402</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C223" s="3">
         <v>10112</v>
@@ -5348,7 +5368,7 @@
         <v>38</v>
       </c>
       <c r="E223" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F223" s="3" t="s">
         <v>18</v>
@@ -5359,13 +5379,13 @@
         <v>212010402</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C224" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D224" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E224" s="3">
         <v>2</v>
@@ -5379,10 +5399,10 @@
         <v>212010402</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C225" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D225" s="3" t="s">
         <v>38</v>
@@ -5399,13 +5419,13 @@
         <v>212010402</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C226" s="3">
         <v>0</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E226" s="3">
         <v>1</v>
@@ -5419,7 +5439,7 @@
         <v>212010402</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C227" s="3">
         <v>10112</v>
@@ -5428,7 +5448,7 @@
         <v>38</v>
       </c>
       <c r="E227" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F227" s="3" t="s">
         <v>18</v>
@@ -5439,13 +5459,13 @@
         <v>212010402</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C228" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D228" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E228" s="3">
         <v>2</v>
@@ -5459,10 +5479,10 @@
         <v>212010402</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C229" s="10" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D229" s="3" t="s">
         <v>38</v>
@@ -5479,13 +5499,13 @@
         <v>212010402</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="C230" s="3">
         <v>0</v>
       </c>
       <c r="D230" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E230" s="3">
         <v>1</v>
